--- a/biology/Histoire de la zoologie et de la botanique/Bernard_Kettlewell/Bernard_Kettlewell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bernard_Kettlewell/Bernard_Kettlewell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Bernard Davis Kettlewell (né le 24 février 1907 et mort le 11 mai 1979)[1] est un zoologiste britannique.
-Il met en évidence l'influence de l'environnement sur la sélection, avec l'étude en 1955[2] du cas de la répartition entre Phalène du bouleau de couleur blanche, adaptée aux arbres clairs, et ceux de couleur noire, invisible pour leurs prédateurs sur les troncs noirs des zones exposées à la pollution.
-C'est une des premières mises en évidence expérimentales de l'impact des conditions externes sur la sélection naturelle[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Bernard Davis Kettlewell (né le 24 février 1907 et mort le 11 mai 1979) est un zoologiste britannique.
+Il met en évidence l'influence de l'environnement sur la sélection, avec l'étude en 1955 du cas de la répartition entre Phalène du bouleau de couleur blanche, adaptée aux arbres clairs, et ceux de couleur noire, invisible pour leurs prédateurs sur les troncs noirs des zones exposées à la pollution.
+C'est une des premières mises en évidence expérimentales de l'impact des conditions externes sur la sélection naturelle.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1959 : Médaille Darwin (URSS)[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1959 : Médaille Darwin (URSS)
 1965 : Médaille Mendel (Tchécoslovaquie)</t>
         </is>
       </c>
